--- a/mock/Balancing aller Gegenstände.xlsx
+++ b/mock/Balancing aller Gegenstände.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>Gegner</t>
   </si>
@@ -72,27 +72,15 @@
     <t>Arkane Kugel (Morbus Fiffi)</t>
   </si>
   <si>
-    <t>Amulett: Arkaner Klostein</t>
-  </si>
-  <si>
     <t>(Keine Waffen)</t>
   </si>
   <si>
-    <t>Ring: Dampfhammeruhr 3000</t>
-  </si>
-  <si>
     <t>Torso:</t>
   </si>
   <si>
     <t>Zauberprüche/Fähigkeiten</t>
   </si>
   <si>
-    <t>Helm: Mauszeiger</t>
-  </si>
-  <si>
-    <t>Boots: Socken Sandalen</t>
-  </si>
-  <si>
     <t>Arkaner Staubsauger (dmg/instant kill)(nur einmal pro kampf)</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>Gesamtwert</t>
   </si>
   <si>
-    <t>Wurtbrot Dose(hp)</t>
-  </si>
-  <si>
     <t>Concatenation</t>
   </si>
   <si>
@@ -262,6 +247,63 @@
   </si>
   <si>
     <t>Inventar Gegenstände (Verbrauchsitems)</t>
+  </si>
+  <si>
+    <t>Blaues Auge der Heilung</t>
+  </si>
+  <si>
+    <t>Grundwert</t>
+  </si>
+  <si>
+    <t>% Multiplikator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stufe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boots: </t>
+  </si>
+  <si>
+    <t>Socken Sandalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring: </t>
+  </si>
+  <si>
+    <t>Dampfhammeruhr 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helm: </t>
+  </si>
+  <si>
+    <t>Mauszeiger</t>
+  </si>
+  <si>
+    <t>Handschuhe</t>
+  </si>
+  <si>
+    <t>Wurstbrot Dose(hp)</t>
+  </si>
+  <si>
+    <t>Enges Outfit</t>
+  </si>
+  <si>
+    <t>Hulk Faust</t>
+  </si>
+  <si>
+    <t>Plastikhandschuhe</t>
+  </si>
+  <si>
+    <t>Arkaner Klostein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amulett/Ring: </t>
+  </si>
+  <si>
+    <t>Arkaner Ring</t>
+  </si>
+  <si>
+    <t>Arkanes Outfit</t>
   </si>
 </sst>
 </file>
@@ -285,12 +327,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -305,10 +353,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -610,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -667,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -702,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -710,40 +759,111 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>18</v>
+      <c r="C9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="C10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C11" s="3">
+        <f>E11+(E14*0.2)</f>
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>21</v>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>23</v>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>72</v>
+      <c r="E14">
+        <f>E12*E13</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -771,102 +891,102 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>Item!B9</f>
-        <v>Amulett: Arkaner Klostein</v>
+        <f>Item!B17</f>
+        <v xml:space="preserve">Amulett/Ring: </v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="str">
         <f>Item!A2</f>
@@ -887,7 +1007,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -896,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" t="str">
         <f>Item!C2</f>
@@ -911,7 +1031,7 @@
         <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J22" s="2">
         <f>J26+J28</f>
@@ -923,7 +1043,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -932,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" t="str">
         <f>Item!C3</f>
@@ -947,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -958,7 +1078,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -967,14 +1087,14 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E24" t="str">
         <f>Item!C4</f>
         <v>Mächtige Hand (dmg/einzel)</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -985,23 +1105,23 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E25" t="str">
         <f>Item!C5</f>
         <v>Faust Gottes (dmg/alle)</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>15</v>
@@ -1009,7 +1129,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1022,7 +1142,7 @@
         <v>Fistus (dmg/einzel)</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>20</v>
@@ -1030,7 +1150,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1043,7 +1163,7 @@
         <v>Rage (dmg, 2 mal angreifen) 1:100%, 2:40%</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>300</v>
@@ -1060,7 +1180,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1069,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <f>Item!B14</f>
+        <f>Item!C10</f>
         <v>HP Pot</v>
       </c>
       <c r="F28" t="str">
@@ -1077,10 +1197,10 @@
         <v>heal30</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J28">
         <v>30</v>
@@ -1088,7 +1208,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -1099,7 +1219,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -1110,12 +1230,12 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1140,52 +1260,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
